--- a/biology/Zoologie/Dinotopia___À_la_recherche_de_la_roche_solaire/Dinotopia___À_la_recherche_de_la_roche_solaire.xlsx
+++ b/biology/Zoologie/Dinotopia___À_la_recherche_de_la_roche_solaire/Dinotopia___À_la_recherche_de_la_roche_solaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dinotopia_:_%C3%80_la_recherche_de_la_roche_solaire</t>
+          <t>Dinotopia_:_À_la_recherche_de_la_roche_solaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinotopia : À la recherche de la pierre solaire (Dinotopia: Quest for the Ruby Sunstone) est un film d'animation américain de 2006 réalisé par Davis Doi et basé sur la fiction Dinotopia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dinotopia_:_%C3%80_la_recherche_de_la_roche_solaire</t>
+          <t>Dinotopia_:_À_la_recherche_de_la_roche_solaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kex Bradley, un orphelin de douze ans, part dans un canot de sauvetage à la découverte du monde. Il arrive sur l'île de Dinotopia où il rencontre 26, un dinosaure avec qui il devient ami. De plus, sur cette île, il n'y a aucune technologie moderne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dinotopia_:_%C3%80_la_recherche_de_la_roche_solaire</t>
+          <t>Dinotopia_:_À_la_recherche_de_la_roche_solaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Davis Doi
 Scénario : James Gurney et Sean Roche
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dinotopia_:_%C3%80_la_recherche_de_la_roche_solaire</t>
+          <t>Dinotopia_:_À_la_recherche_de_la_roche_solaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Alec Medlock : Kex Bradley
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alec Medlock : Kex Bradley
 Alyssa Milano : 26
 Malcolm McDowell : Ogthar
 Jamie Kennedy : Spazz
